--- a/temp_doc/DATA KELAS FIX.xlsx
+++ b/temp_doc/DATA KELAS FIX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.5/temp_doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.6admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99149367-499B-F048-9F4E-857EAE2EDAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ADC3E7-EB38-9F40-9842-AA95369B29ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -233,172 +233,88 @@
     <t>slug</t>
   </si>
   <si>
-    <t>XAKL1</t>
-  </si>
-  <si>
-    <t>XAKL2</t>
-  </si>
-  <si>
-    <t>XPM</t>
-  </si>
-  <si>
-    <t>XMPLB1</t>
-  </si>
-  <si>
-    <t>XMPLB2</t>
-  </si>
-  <si>
-    <t>XTJKT1</t>
-  </si>
-  <si>
-    <t>XTJKT2</t>
-  </si>
-  <si>
-    <t>XTJKT3</t>
-  </si>
-  <si>
-    <t>XTJKT4</t>
-  </si>
-  <si>
-    <t>XDKV</t>
-  </si>
-  <si>
-    <t>XIAKL1</t>
-  </si>
-  <si>
-    <t>XIAKL2</t>
-  </si>
-  <si>
-    <t>XIPM</t>
-  </si>
-  <si>
-    <t>XIMPLB1</t>
-  </si>
-  <si>
-    <t>XIMPLB2</t>
-  </si>
-  <si>
-    <t>XITJKT1</t>
-  </si>
-  <si>
-    <t>XITJKT2</t>
-  </si>
-  <si>
-    <t>XITJKT3</t>
-  </si>
-  <si>
-    <t>XIDKV</t>
-  </si>
-  <si>
-    <t>XIIAKL1</t>
-  </si>
-  <si>
-    <t>XIIAKL2</t>
-  </si>
-  <si>
-    <t>XIIPM</t>
-  </si>
-  <si>
-    <t>XIIMPLB1</t>
-  </si>
-  <si>
-    <t>XIIMPLB2</t>
-  </si>
-  <si>
-    <t>XIITJKT1</t>
-  </si>
-  <si>
-    <t>XIITJKT2</t>
-  </si>
-  <si>
-    <t>XIITJKT3</t>
-  </si>
-  <si>
-    <t>XIIDKV</t>
-  </si>
-  <si>
-    <t>xakl12526</t>
-  </si>
-  <si>
-    <t>xakl22526</t>
-  </si>
-  <si>
-    <t>xpm2526</t>
-  </si>
-  <si>
-    <t>xmplb12526</t>
-  </si>
-  <si>
-    <t>xmplb22526</t>
-  </si>
-  <si>
-    <t>xtjkt12526</t>
-  </si>
-  <si>
-    <t>xtjkt22526</t>
-  </si>
-  <si>
-    <t>xtjkt32526</t>
-  </si>
-  <si>
-    <t>xtjkt42526</t>
-  </si>
-  <si>
-    <t>xdkv2526</t>
-  </si>
-  <si>
-    <t>xiakl12526</t>
-  </si>
-  <si>
-    <t>xiakl22526</t>
-  </si>
-  <si>
-    <t>xipm2526</t>
-  </si>
-  <si>
-    <t>ximplb12526</t>
-  </si>
-  <si>
-    <t>ximplb22526</t>
-  </si>
-  <si>
-    <t>xitjkt12526</t>
-  </si>
-  <si>
-    <t>xitjkt22526</t>
-  </si>
-  <si>
-    <t>xitjkt32526</t>
-  </si>
-  <si>
-    <t>xidkv2526</t>
-  </si>
-  <si>
-    <t>xiiakl12526</t>
-  </si>
-  <si>
-    <t>xiiakl22526</t>
-  </si>
-  <si>
-    <t>xiipm2526</t>
-  </si>
-  <si>
-    <t>xiimplb12526</t>
-  </si>
-  <si>
-    <t>xiimplb22526</t>
-  </si>
-  <si>
-    <t>xiitjkt12526</t>
-  </si>
-  <si>
-    <t>xiitjkt22526</t>
-  </si>
-  <si>
-    <t>xiitjkt32526</t>
-  </si>
-  <si>
-    <t>xiidkv2526</t>
+    <t>X AKL 1_2526</t>
+  </si>
+  <si>
+    <t>X AKL 2_2526</t>
+  </si>
+  <si>
+    <t>X PM_2526</t>
+  </si>
+  <si>
+    <t>X MPLB 1_2526</t>
+  </si>
+  <si>
+    <t>X MPLB 2_2526</t>
+  </si>
+  <si>
+    <t>X TJKT 1_2526</t>
+  </si>
+  <si>
+    <t>X TJKT 2_2526</t>
+  </si>
+  <si>
+    <t>X TJKT 3_2526</t>
+  </si>
+  <si>
+    <t>X TJKT 4_2526</t>
+  </si>
+  <si>
+    <t>X DKV_2526</t>
+  </si>
+  <si>
+    <t>XI AKL 1_2526</t>
+  </si>
+  <si>
+    <t>XI AKL 2_2526</t>
+  </si>
+  <si>
+    <t>XI PM _2526</t>
+  </si>
+  <si>
+    <t>XI MPLB 1_2526</t>
+  </si>
+  <si>
+    <t>XI MPLB 2_2526</t>
+  </si>
+  <si>
+    <t>XI TJKT 1_2526</t>
+  </si>
+  <si>
+    <t>XI TJKT 2_2526</t>
+  </si>
+  <si>
+    <t>XI TJKT 3_2526</t>
+  </si>
+  <si>
+    <t>XI DKV_2526</t>
+  </si>
+  <si>
+    <t>XII AKL 1_2526</t>
+  </si>
+  <si>
+    <t>XII AKL 2_2526</t>
+  </si>
+  <si>
+    <t>XII PM _2526</t>
+  </si>
+  <si>
+    <t>XII MPLB 1_2526</t>
+  </si>
+  <si>
+    <t>XII MPLB 2_2526</t>
+  </si>
+  <si>
+    <t>XII TJKT 1_2526</t>
+  </si>
+  <si>
+    <t>XII TJKT 2_2526</t>
+  </si>
+  <si>
+    <t>XII TJKT 3_2526</t>
+  </si>
+  <si>
+    <t>XII DKV_2526</t>
   </si>
 </sst>
 </file>
@@ -768,10 +684,13 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -798,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -812,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -826,7 +745,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -840,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -854,7 +773,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -868,7 +787,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -882,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -896,7 +815,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -910,7 +829,7 @@
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -924,7 +843,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -938,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -952,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -966,7 +885,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -980,7 +899,7 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -994,7 +913,7 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1008,7 +927,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1022,7 +941,7 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1036,7 +955,7 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1050,7 +969,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1064,7 +983,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1078,7 +997,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1092,7 +1011,7 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1106,7 +1025,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1120,7 +1039,7 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1134,7 +1053,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1148,7 +1067,7 @@
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1162,7 +1081,7 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1176,7 +1095,7 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1197,257 +1116,260 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B1" t="str">
-        <f>CONCATENATE(LOWER(A1),2526)</f>
-        <v>xakl12526</v>
+        <f>CONCATENATE(UPPER(A1),"_",2526)</f>
+        <v>X AKL 1_2526</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B28" si="0">CONCATENATE(LOWER(A2),2526)</f>
-        <v>xakl22526</v>
+        <f t="shared" ref="B2:B28" si="0">CONCATENATE(UPPER(A2),"_",2526)</f>
+        <v>X AKL 2_2526</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>xpm2526</v>
+        <v>X PM_2526</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>xmplb12526</v>
+        <v>X MPLB 1_2526</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>xmplb22526</v>
+        <v>X MPLB 2_2526</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>xtjkt12526</v>
+        <v>X TJKT 1_2526</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>xtjkt22526</v>
+        <v>X TJKT 2_2526</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>xtjkt32526</v>
+        <v>X TJKT 3_2526</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>xtjkt42526</v>
+        <v>X TJKT 4_2526</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>xdkv2526</v>
+        <v>X DKV_2526</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>xiakl12526</v>
+        <v>XI AKL 1_2526</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>xiakl22526</v>
+        <v>XI AKL 2_2526</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>xipm2526</v>
+        <v>XI PM _2526</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>ximplb12526</v>
+        <v>XI MPLB 1_2526</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>ximplb22526</v>
+        <v>XI MPLB 2_2526</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>xitjkt12526</v>
+        <v>XI TJKT 1_2526</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>xitjkt22526</v>
+        <v>XI TJKT 2_2526</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>xitjkt32526</v>
+        <v>XI TJKT 3_2526</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>xidkv2526</v>
+        <v>XI DKV_2526</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>xiiakl12526</v>
+        <v>XII AKL 1_2526</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>xiiakl22526</v>
+        <v>XII AKL 2_2526</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>xiipm2526</v>
+        <v>XII PM _2526</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>xiimplb12526</v>
+        <v>XII MPLB 1_2526</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>xiimplb22526</v>
+        <v>XII MPLB 2_2526</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>xiitjkt12526</v>
+        <v>XII TJKT 1_2526</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>xiitjkt22526</v>
+        <v>XII TJKT 2_2526</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>xiitjkt32526</v>
+        <v>XII TJKT 3_2526</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>xiidkv2526</v>
+        <v>XII DKV_2526</v>
       </c>
     </row>
   </sheetData>

--- a/temp_doc/DATA KELAS FIX.xlsx
+++ b/temp_doc/DATA KELAS FIX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.6admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ADC3E7-EB38-9F40-9842-AA95369B29ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A03022A-6AB8-5F49-89C2-50ACDEC8E633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -233,88 +233,172 @@
     <t>slug</t>
   </si>
   <si>
-    <t>X AKL 1_2526</t>
-  </si>
-  <si>
-    <t>X AKL 2_2526</t>
-  </si>
-  <si>
-    <t>X PM_2526</t>
-  </si>
-  <si>
-    <t>X MPLB 1_2526</t>
-  </si>
-  <si>
-    <t>X MPLB 2_2526</t>
-  </si>
-  <si>
-    <t>X TJKT 1_2526</t>
-  </si>
-  <si>
-    <t>X TJKT 2_2526</t>
-  </si>
-  <si>
-    <t>X TJKT 3_2526</t>
-  </si>
-  <si>
-    <t>X TJKT 4_2526</t>
-  </si>
-  <si>
-    <t>X DKV_2526</t>
-  </si>
-  <si>
-    <t>XI AKL 1_2526</t>
-  </si>
-  <si>
-    <t>XI AKL 2_2526</t>
-  </si>
-  <si>
-    <t>XI PM _2526</t>
-  </si>
-  <si>
-    <t>XI MPLB 1_2526</t>
-  </si>
-  <si>
-    <t>XI MPLB 2_2526</t>
-  </si>
-  <si>
-    <t>XI TJKT 1_2526</t>
-  </si>
-  <si>
-    <t>XI TJKT 2_2526</t>
-  </si>
-  <si>
-    <t>XI TJKT 3_2526</t>
-  </si>
-  <si>
-    <t>XI DKV_2526</t>
-  </si>
-  <si>
-    <t>XII AKL 1_2526</t>
-  </si>
-  <si>
-    <t>XII AKL 2_2526</t>
-  </si>
-  <si>
-    <t>XII PM _2526</t>
-  </si>
-  <si>
-    <t>XII MPLB 1_2526</t>
-  </si>
-  <si>
-    <t>XII MPLB 2_2526</t>
-  </si>
-  <si>
-    <t>XII TJKT 1_2526</t>
-  </si>
-  <si>
-    <t>XII TJKT 2_2526</t>
-  </si>
-  <si>
-    <t>XII TJKT 3_2526</t>
-  </si>
-  <si>
-    <t>XII DKV_2526</t>
+    <t>XAKL2</t>
+  </si>
+  <si>
+    <t>XPM</t>
+  </si>
+  <si>
+    <t>XMPLB1</t>
+  </si>
+  <si>
+    <t>XMPLB2</t>
+  </si>
+  <si>
+    <t>XTJKT1</t>
+  </si>
+  <si>
+    <t>XTJKT2</t>
+  </si>
+  <si>
+    <t>XTJKT3</t>
+  </si>
+  <si>
+    <t>XTJKT4</t>
+  </si>
+  <si>
+    <t>XDKV</t>
+  </si>
+  <si>
+    <t>XIAKL1</t>
+  </si>
+  <si>
+    <t>XIAKL2</t>
+  </si>
+  <si>
+    <t>XIPM</t>
+  </si>
+  <si>
+    <t>XIMPLB1</t>
+  </si>
+  <si>
+    <t>XIMPLB2</t>
+  </si>
+  <si>
+    <t>XITJKT1</t>
+  </si>
+  <si>
+    <t>XITJKT2</t>
+  </si>
+  <si>
+    <t>XITJKT3</t>
+  </si>
+  <si>
+    <t>XIDKV</t>
+  </si>
+  <si>
+    <t>XIIAKL1</t>
+  </si>
+  <si>
+    <t>XIIAKL2</t>
+  </si>
+  <si>
+    <t>XIIPM</t>
+  </si>
+  <si>
+    <t>XIIMPLB1</t>
+  </si>
+  <si>
+    <t>XIIMPLB2</t>
+  </si>
+  <si>
+    <t>XIITJKT1</t>
+  </si>
+  <si>
+    <t>XIITJKT2</t>
+  </si>
+  <si>
+    <t>XIITJKT3</t>
+  </si>
+  <si>
+    <t>XIIDKV</t>
+  </si>
+  <si>
+    <t>XAKL1</t>
+  </si>
+  <si>
+    <t>xakl1_2526</t>
+  </si>
+  <si>
+    <t>xakl2_2526</t>
+  </si>
+  <si>
+    <t>xpm_2526</t>
+  </si>
+  <si>
+    <t>xmplb1_2526</t>
+  </si>
+  <si>
+    <t>xmplb2_2526</t>
+  </si>
+  <si>
+    <t>xtjkt1_2526</t>
+  </si>
+  <si>
+    <t>xtjkt2_2526</t>
+  </si>
+  <si>
+    <t>xtjkt3_2526</t>
+  </si>
+  <si>
+    <t>xtjkt4_2526</t>
+  </si>
+  <si>
+    <t>xdkv_2526</t>
+  </si>
+  <si>
+    <t>xiakl1_2526</t>
+  </si>
+  <si>
+    <t>xiakl2_2526</t>
+  </si>
+  <si>
+    <t>xipm_2526</t>
+  </si>
+  <si>
+    <t>ximplb1_2526</t>
+  </si>
+  <si>
+    <t>ximplb2_2526</t>
+  </si>
+  <si>
+    <t>xitjkt1_2526</t>
+  </si>
+  <si>
+    <t>xitjkt2_2526</t>
+  </si>
+  <si>
+    <t>xitjkt3_2526</t>
+  </si>
+  <si>
+    <t>xidkv_2526</t>
+  </si>
+  <si>
+    <t>xiiakl1_2526</t>
+  </si>
+  <si>
+    <t>xiiakl2_2526</t>
+  </si>
+  <si>
+    <t>xiipm_2526</t>
+  </si>
+  <si>
+    <t>xiimplb1_2526</t>
+  </si>
+  <si>
+    <t>xiimplb2_2526</t>
+  </si>
+  <si>
+    <t>xiitjkt1_2526</t>
+  </si>
+  <si>
+    <t>xiitjkt2_2526</t>
+  </si>
+  <si>
+    <t>xiitjkt3_2526</t>
+  </si>
+  <si>
+    <t>xiidkv_2526</t>
   </si>
 </sst>
 </file>
@@ -684,7 +768,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D2" sqref="D2:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -717,7 +801,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -731,7 +815,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -745,7 +829,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -759,7 +843,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -773,7 +857,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -787,7 +871,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -801,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -815,7 +899,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -829,7 +913,7 @@
         <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -843,7 +927,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -857,7 +941,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -871,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -885,7 +969,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -899,7 +983,7 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -913,7 +997,7 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -927,7 +1011,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -941,7 +1025,7 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -955,7 +1039,7 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -969,7 +1053,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -983,7 +1067,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -997,7 +1081,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1011,7 +1095,7 @@
         <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1025,7 +1109,7 @@
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1039,7 +1123,7 @@
         <v>30</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1053,7 +1137,7 @@
         <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1067,7 +1151,7 @@
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1081,7 +1165,7 @@
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1095,7 +1179,7 @@
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1122,254 +1206,254 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="B1" t="str">
-        <f>CONCATENATE(UPPER(A1),"_",2526)</f>
-        <v>X AKL 1_2526</v>
+        <f>CONCATENATE(LOWER(A1),"_",2526)</f>
+        <v>xakl1_2526</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B28" si="0">CONCATENATE(UPPER(A2),"_",2526)</f>
-        <v>X AKL 2_2526</v>
+        <f t="shared" ref="B2:B28" si="0">CONCATENATE(LOWER(A2),"_",2526)</f>
+        <v>xakl2_2526</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>X PM_2526</v>
+        <v>xpm_2526</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>X MPLB 1_2526</v>
+        <v>xmplb1_2526</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>X MPLB 2_2526</v>
+        <v>xmplb2_2526</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>X TJKT 1_2526</v>
+        <v>xtjkt1_2526</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>X TJKT 2_2526</v>
+        <v>xtjkt2_2526</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>X TJKT 3_2526</v>
+        <v>xtjkt3_2526</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>X TJKT 4_2526</v>
+        <v>xtjkt4_2526</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>X DKV_2526</v>
+        <v>xdkv_2526</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>XI AKL 1_2526</v>
+        <v>xiakl1_2526</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>XI AKL 2_2526</v>
+        <v>xiakl2_2526</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>XI PM _2526</v>
+        <v>xipm_2526</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>XI MPLB 1_2526</v>
+        <v>ximplb1_2526</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>XI MPLB 2_2526</v>
+        <v>ximplb2_2526</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>XI TJKT 1_2526</v>
+        <v>xitjkt1_2526</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>XI TJKT 2_2526</v>
+        <v>xitjkt2_2526</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>XI TJKT 3_2526</v>
+        <v>xitjkt3_2526</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>XI DKV_2526</v>
+        <v>xidkv_2526</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>XII AKL 1_2526</v>
+        <v>xiiakl1_2526</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>XII AKL 2_2526</v>
+        <v>xiiakl2_2526</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>XII PM _2526</v>
+        <v>xiipm_2526</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>XII MPLB 1_2526</v>
+        <v>xiimplb1_2526</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>XII MPLB 2_2526</v>
+        <v>xiimplb2_2526</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>XII TJKT 1_2526</v>
+        <v>xiitjkt1_2526</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>XII TJKT 2_2526</v>
+        <v>xiitjkt2_2526</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>XII TJKT 3_2526</v>
+        <v>xiitjkt3_2526</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>XII DKV_2526</v>
+        <v>xiidkv_2526</v>
       </c>
     </row>
   </sheetData>

--- a/temp_doc/DATA KELAS FIX.xlsx
+++ b/temp_doc/DATA KELAS FIX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.6admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A03022A-6AB8-5F49-89C2-50ACDEC8E633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEDC996-87AF-6A45-BC73-EE3634170367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -50,18 +50,6 @@
     <t>AKL</t>
   </si>
   <si>
-    <t>X AKL 1</t>
-  </si>
-  <si>
-    <t>X AKL 2</t>
-  </si>
-  <si>
-    <t>XI AKL 1</t>
-  </si>
-  <si>
-    <t>XI AKL 2</t>
-  </si>
-  <si>
     <t>DKV</t>
   </si>
   <si>
@@ -71,51 +59,9 @@
     <t>MPLB</t>
   </si>
   <si>
-    <t>X MPLB 1</t>
-  </si>
-  <si>
-    <t>X MPLB 2</t>
-  </si>
-  <si>
-    <t>XI MPLB 1</t>
-  </si>
-  <si>
-    <t>XI MPLB 2</t>
-  </si>
-  <si>
     <t>TJKT</t>
   </si>
   <si>
-    <t>X TJKT 1</t>
-  </si>
-  <si>
-    <t>X TJKT 2</t>
-  </si>
-  <si>
-    <t>X TJKT 3</t>
-  </si>
-  <si>
-    <t>XI TJKT 1</t>
-  </si>
-  <si>
-    <t>XI TJKT 2</t>
-  </si>
-  <si>
-    <t>XI TJKT 3</t>
-  </si>
-  <si>
-    <t>X DKV</t>
-  </si>
-  <si>
-    <t>X PM</t>
-  </si>
-  <si>
-    <t>XI DKV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XI PM </t>
-  </si>
-  <si>
     <t>XII AKL 1</t>
   </si>
   <si>
@@ -143,63 +89,6 @@
     <t>XII DKV</t>
   </si>
   <si>
-    <t>10012526</t>
-  </si>
-  <si>
-    <t>10022526</t>
-  </si>
-  <si>
-    <t>10032526</t>
-  </si>
-  <si>
-    <t>10042526</t>
-  </si>
-  <si>
-    <t>10052526</t>
-  </si>
-  <si>
-    <t>10062526</t>
-  </si>
-  <si>
-    <t>10072526</t>
-  </si>
-  <si>
-    <t>10082526</t>
-  </si>
-  <si>
-    <t>10092526</t>
-  </si>
-  <si>
-    <t>10102526</t>
-  </si>
-  <si>
-    <t>10112526</t>
-  </si>
-  <si>
-    <t>10122526</t>
-  </si>
-  <si>
-    <t>10132526</t>
-  </si>
-  <si>
-    <t>10142526</t>
-  </si>
-  <si>
-    <t>10152526</t>
-  </si>
-  <si>
-    <t>10162526</t>
-  </si>
-  <si>
-    <t>10172526</t>
-  </si>
-  <si>
-    <t>10182526</t>
-  </si>
-  <si>
-    <t>10192526</t>
-  </si>
-  <si>
     <t>10202526</t>
   </si>
   <si>
@@ -224,9 +113,6 @@
     <t>10272526</t>
   </si>
   <si>
-    <t>X TJKT 4</t>
-  </si>
-  <si>
     <t>10282526</t>
   </si>
   <si>
@@ -315,63 +201,6 @@
   </si>
   <si>
     <t>XAKL1</t>
-  </si>
-  <si>
-    <t>xakl1_2526</t>
-  </si>
-  <si>
-    <t>xakl2_2526</t>
-  </si>
-  <si>
-    <t>xpm_2526</t>
-  </si>
-  <si>
-    <t>xmplb1_2526</t>
-  </si>
-  <si>
-    <t>xmplb2_2526</t>
-  </si>
-  <si>
-    <t>xtjkt1_2526</t>
-  </si>
-  <si>
-    <t>xtjkt2_2526</t>
-  </si>
-  <si>
-    <t>xtjkt3_2526</t>
-  </si>
-  <si>
-    <t>xtjkt4_2526</t>
-  </si>
-  <si>
-    <t>xdkv_2526</t>
-  </si>
-  <si>
-    <t>xiakl1_2526</t>
-  </si>
-  <si>
-    <t>xiakl2_2526</t>
-  </si>
-  <si>
-    <t>xipm_2526</t>
-  </si>
-  <si>
-    <t>ximplb1_2526</t>
-  </si>
-  <si>
-    <t>ximplb2_2526</t>
-  </si>
-  <si>
-    <t>xitjkt1_2526</t>
-  </si>
-  <si>
-    <t>xitjkt2_2526</t>
-  </si>
-  <si>
-    <t>xitjkt3_2526</t>
-  </si>
-  <si>
-    <t>xidkv_2526</t>
   </si>
   <si>
     <t>xiiakl1_2526</t>
@@ -765,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664577AF-41FC-0C49-BD7B-86162BAED619}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D29"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,7 +605,7 @@
     <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,403 +616,173 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE(C2,"_TO_2526")</f>
+        <v>XII AKL 1_TO_2526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E10" si="0">CONCATENATE(C3,"_TO_2526")</f>
+        <v>XII AKL 2_TO_2526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>XII PM _TO_2526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>XII MPLB 1_TO_2526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>XII MPLB 2_TO_2526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>XII TJKT 1_TO_2526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>XII TJKT 2_TO_2526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>XII TJKT 3_TO_2526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
       <c r="D10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
         <v>63</v>
       </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="2"/>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>XII DKV_TO_2526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1206,7 +805,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="B1" t="str">
         <f>CONCATENATE(LOWER(A1),"_",2526)</f>
@@ -1215,7 +814,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B28" si="0">CONCATENATE(LOWER(A2),"_",2526)</f>
@@ -1224,7 +823,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -1233,7 +832,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -1242,7 +841,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -1251,7 +850,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -1260,7 +859,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -1269,7 +868,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -1278,7 +877,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -1287,7 +886,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -1296,7 +895,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -1305,7 +904,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -1314,7 +913,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -1323,7 +922,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -1332,7 +931,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -1341,7 +940,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -1350,7 +949,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -1359,7 +958,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -1368,7 +967,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -1377,7 +976,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -1386,7 +985,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -1395,7 +994,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -1404,7 +1003,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -1413,7 +1012,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -1422,7 +1021,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -1431,7 +1030,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -1440,7 +1039,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -1449,7 +1048,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>

--- a/temp_doc/DATA KELAS FIX.xlsx
+++ b/temp_doc/DATA KELAS FIX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.6admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEDC996-87AF-6A45-BC73-EE3634170367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F968006-02AE-6B40-9816-0A395ECF3C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
   </bookViews>
@@ -203,31 +203,31 @@
     <t>XAKL1</t>
   </si>
   <si>
-    <t>xiiakl1_2526</t>
-  </si>
-  <si>
-    <t>xiiakl2_2526</t>
-  </si>
-  <si>
-    <t>xiipm_2526</t>
-  </si>
-  <si>
-    <t>xiimplb1_2526</t>
-  </si>
-  <si>
-    <t>xiimplb2_2526</t>
-  </si>
-  <si>
-    <t>xiitjkt1_2526</t>
-  </si>
-  <si>
-    <t>xiitjkt2_2526</t>
-  </si>
-  <si>
-    <t>xiitjkt3_2526</t>
-  </si>
-  <si>
-    <t>xiidkv_2526</t>
+    <t>XII AKL 1_TO_2526</t>
+  </si>
+  <si>
+    <t>XII AKL 2_TO_2526</t>
+  </si>
+  <si>
+    <t>XII PM _TO_2526</t>
+  </si>
+  <si>
+    <t>XII MPLB 1_TO_2526</t>
+  </si>
+  <si>
+    <t>XII MPLB 2_TO_2526</t>
+  </si>
+  <si>
+    <t>XII TJKT 1_TO_2526</t>
+  </si>
+  <si>
+    <t>XII TJKT 2_TO_2526</t>
+  </si>
+  <si>
+    <t>XII TJKT 3_TO_2526</t>
+  </si>
+  <si>
+    <t>XII DKV_TO_2526</t>
   </si>
 </sst>
 </file>
@@ -594,18 +594,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664577AF-41FC-0C49-BD7B-86162BAED619}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -632,12 +632,8 @@
       <c r="D2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="str">
-        <f>CONCATENATE(C2,"_TO_2526")</f>
-        <v>XII AKL 1_TO_2526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -650,12 +646,8 @@
       <c r="D3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E10" si="0">CONCATENATE(C3,"_TO_2526")</f>
-        <v>XII AKL 2_TO_2526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -668,12 +660,8 @@
       <c r="D4" t="s">
         <v>57</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>XII PM _TO_2526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -686,12 +674,8 @@
       <c r="D5" t="s">
         <v>58</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>XII MPLB 1_TO_2526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -704,12 +688,8 @@
       <c r="D6" t="s">
         <v>59</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>XII MPLB 2_TO_2526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -722,12 +702,8 @@
       <c r="D7" t="s">
         <v>60</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>XII TJKT 1_TO_2526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -740,12 +716,8 @@
       <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>XII TJKT 2_TO_2526</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -758,12 +730,8 @@
       <c r="D9" t="s">
         <v>62</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>XII TJKT 3_TO_2526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -776,12 +744,8 @@
       <c r="D10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>XII DKV_TO_2526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
     </row>
   </sheetData>

--- a/temp_doc/DATA KELAS FIX.xlsx
+++ b/temp_doc/DATA KELAS FIX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.6admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F968006-02AE-6B40-9816-0A395ECF3C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEDC996-87AF-6A45-BC73-EE3634170367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
   </bookViews>
@@ -203,31 +203,31 @@
     <t>XAKL1</t>
   </si>
   <si>
-    <t>XII AKL 1_TO_2526</t>
-  </si>
-  <si>
-    <t>XII AKL 2_TO_2526</t>
-  </si>
-  <si>
-    <t>XII PM _TO_2526</t>
-  </si>
-  <si>
-    <t>XII MPLB 1_TO_2526</t>
-  </si>
-  <si>
-    <t>XII MPLB 2_TO_2526</t>
-  </si>
-  <si>
-    <t>XII TJKT 1_TO_2526</t>
-  </si>
-  <si>
-    <t>XII TJKT 2_TO_2526</t>
-  </si>
-  <si>
-    <t>XII TJKT 3_TO_2526</t>
-  </si>
-  <si>
-    <t>XII DKV_TO_2526</t>
+    <t>xiiakl1_2526</t>
+  </si>
+  <si>
+    <t>xiiakl2_2526</t>
+  </si>
+  <si>
+    <t>xiipm_2526</t>
+  </si>
+  <si>
+    <t>xiimplb1_2526</t>
+  </si>
+  <si>
+    <t>xiimplb2_2526</t>
+  </si>
+  <si>
+    <t>xiitjkt1_2526</t>
+  </si>
+  <si>
+    <t>xiitjkt2_2526</t>
+  </si>
+  <si>
+    <t>xiitjkt3_2526</t>
+  </si>
+  <si>
+    <t>xiidkv_2526</t>
   </si>
 </sst>
 </file>
@@ -594,18 +594,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664577AF-41FC-0C49-BD7B-86162BAED619}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -632,8 +632,12 @@
       <c r="D2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="str">
+        <f>CONCATENATE(C2,"_TO_2526")</f>
+        <v>XII AKL 1_TO_2526</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -646,8 +650,12 @@
       <c r="D3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E10" si="0">CONCATENATE(C3,"_TO_2526")</f>
+        <v>XII AKL 2_TO_2526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -660,8 +668,12 @@
       <c r="D4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>XII PM _TO_2526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -674,8 +686,12 @@
       <c r="D5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>XII MPLB 1_TO_2526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -688,8 +704,12 @@
       <c r="D6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>XII MPLB 2_TO_2526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -702,8 +722,12 @@
       <c r="D7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>XII TJKT 1_TO_2526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -716,8 +740,12 @@
       <c r="D8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>XII TJKT 2_TO_2526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -730,8 +758,12 @@
       <c r="D9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>XII TJKT 3_TO_2526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -744,8 +776,12 @@
       <c r="D10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>XII DKV_TO_2526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="2"/>
     </row>
   </sheetData>

--- a/temp_doc/DATA KELAS FIX.xlsx
+++ b/temp_doc/DATA KELAS FIX.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.6admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEDC996-87AF-6A45-BC73-EE3634170367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE41044-C6F4-7D4D-AB6F-1E9945E0143E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$29</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -68,9 +71,6 @@
     <t>XII AKL 2</t>
   </si>
   <si>
-    <t xml:space="preserve">XII PM </t>
-  </si>
-  <si>
     <t>XII MPLB 1</t>
   </si>
   <si>
@@ -89,33 +89,6 @@
     <t>XII DKV</t>
   </si>
   <si>
-    <t>10202526</t>
-  </si>
-  <si>
-    <t>10212526</t>
-  </si>
-  <si>
-    <t>10222526</t>
-  </si>
-  <si>
-    <t>10232526</t>
-  </si>
-  <si>
-    <t>10242526</t>
-  </si>
-  <si>
-    <t>10252526</t>
-  </si>
-  <si>
-    <t>10262526</t>
-  </si>
-  <si>
-    <t>10272526</t>
-  </si>
-  <si>
-    <t>10282526</t>
-  </si>
-  <si>
     <t>slug</t>
   </si>
   <si>
@@ -203,38 +176,155 @@
     <t>XAKL1</t>
   </si>
   <si>
-    <t>xiiakl1_2526</t>
-  </si>
-  <si>
-    <t>xiiakl2_2526</t>
-  </si>
-  <si>
-    <t>xiipm_2526</t>
-  </si>
-  <si>
-    <t>xiimplb1_2526</t>
-  </si>
-  <si>
-    <t>xiimplb2_2526</t>
-  </si>
-  <si>
-    <t>xiitjkt1_2526</t>
-  </si>
-  <si>
-    <t>xiitjkt2_2526</t>
-  </si>
-  <si>
-    <t>xiitjkt3_2526</t>
-  </si>
-  <si>
-    <t>xiidkv_2526</t>
+    <t>X AKL 1</t>
+  </si>
+  <si>
+    <t>X AKL 2</t>
+  </si>
+  <si>
+    <t>X PM</t>
+  </si>
+  <si>
+    <t>X MPLB 1</t>
+  </si>
+  <si>
+    <t>X MPLB 2</t>
+  </si>
+  <si>
+    <t>X TJKT 1</t>
+  </si>
+  <si>
+    <t>X TJKT 2</t>
+  </si>
+  <si>
+    <t>X TJKT 3</t>
+  </si>
+  <si>
+    <t>X TJKT 4</t>
+  </si>
+  <si>
+    <t>X DKV</t>
+  </si>
+  <si>
+    <t>XI AKL 1</t>
+  </si>
+  <si>
+    <t>XI AKL 2</t>
+  </si>
+  <si>
+    <t>XI PM</t>
+  </si>
+  <si>
+    <t>XI MPLB 1</t>
+  </si>
+  <si>
+    <t>XI MPLB 2</t>
+  </si>
+  <si>
+    <t>XI TJKT 1</t>
+  </si>
+  <si>
+    <t>XI TJKT 2</t>
+  </si>
+  <si>
+    <t>XI TJKT 3</t>
+  </si>
+  <si>
+    <t>XI DKV</t>
+  </si>
+  <si>
+    <t>XII PM</t>
+  </si>
+  <si>
+    <t>X AKL 1_STS_2526</t>
+  </si>
+  <si>
+    <t>X AKL 2_STS_2526</t>
+  </si>
+  <si>
+    <t>X PM_STS_2526</t>
+  </si>
+  <si>
+    <t>X MPLB 1_STS_2526</t>
+  </si>
+  <si>
+    <t>X MPLB 2_STS_2526</t>
+  </si>
+  <si>
+    <t>X TJKT 1_STS_2526</t>
+  </si>
+  <si>
+    <t>X TJKT 2_STS_2526</t>
+  </si>
+  <si>
+    <t>X TJKT 3_STS_2526</t>
+  </si>
+  <si>
+    <t>X TJKT 4_STS_2526</t>
+  </si>
+  <si>
+    <t>X DKV_STS_2526</t>
+  </si>
+  <si>
+    <t>XI AKL 1_STS_2526</t>
+  </si>
+  <si>
+    <t>XI AKL 2_STS_2526</t>
+  </si>
+  <si>
+    <t>XI PM_STS_2526</t>
+  </si>
+  <si>
+    <t>XI MPLB 1_STS_2526</t>
+  </si>
+  <si>
+    <t>XI MPLB 2_STS_2526</t>
+  </si>
+  <si>
+    <t>XI TJKT 1_STS_2526</t>
+  </si>
+  <si>
+    <t>XI TJKT 2_STS_2526</t>
+  </si>
+  <si>
+    <t>XI TJKT 3_STS_2526</t>
+  </si>
+  <si>
+    <t>XI DKV_STS_2526</t>
+  </si>
+  <si>
+    <t>XII AKL 1_SAS_2526</t>
+  </si>
+  <si>
+    <t>XII AKL 2_SAS_2526</t>
+  </si>
+  <si>
+    <t>XII PM_SAS_2526</t>
+  </si>
+  <si>
+    <t>XII MPLB 1_SAS_2526</t>
+  </si>
+  <si>
+    <t>XII MPLB 2_SAS_2526</t>
+  </si>
+  <si>
+    <t>XII TJKT 1_SAS_2526</t>
+  </si>
+  <si>
+    <t>XII TJKT 2_SAS_2526</t>
+  </si>
+  <si>
+    <t>XII TJKT 3_SAS_2526</t>
+  </si>
+  <si>
+    <t>XII DKV_SAS_2526</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,6 +344,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -276,10 +373,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,18 +692,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664577AF-41FC-0C49-BD7B-86162BAED619}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,173 +714,400 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1001</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="C2" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="str">
-        <f>CONCATENATE(C2,"_TO_2526")</f>
-        <v>XII AKL 1_TO_2526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1002</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E10" si="0">CONCATENATE(C3,"_TO_2526")</f>
-        <v>XII AKL 2_TO_2526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1003</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>XII PM _TO_2526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1004</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>XII MPLB 1_TO_2526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>21</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1005</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>XII MPLB 2_TO_2526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>22</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1006</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>XII TJKT 1_TO_2526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1007</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
+      <c r="C8" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>XII TJKT 2_TO_2526</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>24</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1008</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1025</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1027</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1028</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>XII TJKT 3_TO_2526</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>XII DKV_TO_2526</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C11" s="2"/>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -805,7 +1130,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B1" t="str">
         <f>CONCATENATE(LOWER(A1),"_",2526)</f>
@@ -814,7 +1139,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B28" si="0">CONCATENATE(LOWER(A2),"_",2526)</f>
@@ -823,7 +1148,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -832,7 +1157,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -841,7 +1166,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -850,7 +1175,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -859,7 +1184,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -868,7 +1193,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -877,7 +1202,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -886,7 +1211,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -895,7 +1220,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -904,7 +1229,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -913,7 +1238,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -922,7 +1247,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -931,7 +1256,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -940,7 +1265,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -949,7 +1274,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -958,7 +1283,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -967,7 +1292,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -976,7 +1301,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -985,7 +1310,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -994,7 +1319,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -1003,7 +1328,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -1012,7 +1337,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -1021,7 +1346,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -1030,7 +1355,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -1039,7 +1364,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -1048,7 +1373,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
